--- a/Doc/cahierDeTestsCitadelle.xlsx
+++ b/Doc/cahierDeTestsCitadelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DYNXTSX\Desktop\Citadelles\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{433AAE62-B41A-49C3-93DA-67760F322197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73364620-38DD-4CF5-BE72-8AF44B9C19F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objectifs" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="84">
   <si>
     <t>Objectif</t>
   </si>
@@ -176,6 +176,132 @@
   </si>
   <si>
     <t>Erreur quand j'ai copié dans la liste (Nobles != Noble)</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Tester le constructeur du joueur</t>
+  </si>
+  <si>
+    <t>Tester que les champs soient nulles</t>
+  </si>
+  <si>
+    <t>Tester le trésor du joueur</t>
+  </si>
+  <si>
+    <t>Tester la cité du joueur</t>
+  </si>
+  <si>
+    <t>Tester la main du joueur</t>
+  </si>
+  <si>
+    <t>Tester la réinitialisation</t>
+  </si>
+  <si>
+    <t>testRoi.test1()</t>
+  </si>
+  <si>
+    <t>testRoi.test2()</t>
+  </si>
+  <si>
+    <t>testRoi.test3()</t>
+  </si>
+  <si>
+    <t>testRoi.test4()</t>
+  </si>
+  <si>
+    <t>testRoi.test5()</t>
+  </si>
+  <si>
+    <t>testRoi.test6()</t>
+  </si>
+  <si>
+    <t>testRoi.test7()</t>
+  </si>
+  <si>
+    <t>testRoi.test8()</t>
+  </si>
+  <si>
+    <t>testRoi.test9()</t>
+  </si>
+  <si>
+    <t>testRoi.test10()</t>
+  </si>
+  <si>
+    <t>Tester le constructeur</t>
+  </si>
+  <si>
+    <t>Tester l'attribution d'un joueur</t>
+  </si>
+  <si>
+    <t>Tester l'assassinat d'un personnage</t>
+  </si>
+  <si>
+    <t>Tester le vol d'un personnage</t>
+  </si>
+  <si>
+    <t>Tester la perception de piece d'or</t>
+  </si>
+  <si>
+    <t>Tester l'ajout de quartier dans la main du joueur</t>
+  </si>
+  <si>
+    <t>Tester la construction d'un quartier dans la cite du joueur</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>"NOBLE" != "NOBLES" …</t>
+  </si>
+  <si>
+    <t>Tester la perception de ressources spécifiques</t>
+  </si>
+  <si>
+    <t>Tester l'utilisation du pouvoir du roi</t>
+  </si>
+  <si>
+    <t>testPioche.test1()</t>
+  </si>
+  <si>
+    <t>testPioche.test2()</t>
+  </si>
+  <si>
+    <t>testPioche.test3()</t>
+  </si>
+  <si>
+    <t>testPioche.test4()</t>
+  </si>
+  <si>
+    <t>Tester d'ajout d'un quartier</t>
+  </si>
+  <si>
+    <t>Tester retrait d'un quartier</t>
+  </si>
+  <si>
+    <t>Tester le mélange de la pioche</t>
+  </si>
+  <si>
+    <t>testPlateau.test1()</t>
+  </si>
+  <si>
+    <t>testPlateau.test2()</t>
+  </si>
+  <si>
+    <t>testPlateau.test3()</t>
+  </si>
+  <si>
+    <t>testPlateau.test4()</t>
+  </si>
+  <si>
+    <t>Tester d'ajout d'un joueur</t>
+  </si>
+  <si>
+    <t>Tester d'ajout d'un personnage</t>
+  </si>
+  <si>
+    <t>Tester l'association du plateau au personnage</t>
   </si>
 </sst>
 </file>
@@ -428,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -457,6 +583,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -811,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,19 +1428,19 @@
   <dimension ref="B1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L26"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.85546875" customWidth="1"/>
     <col min="11" max="11" width="59.28515625" customWidth="1"/>
   </cols>
@@ -1358,14 +1485,30 @@
       <c r="C3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
+      <c r="D3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="19">
+        <v>44657</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
@@ -1374,14 +1517,30 @@
       <c r="C4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="4"/>
+      <c r="D4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="20">
+        <v>44657</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -1390,14 +1549,30 @@
       <c r="C5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="4"/>
+      <c r="D5" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="19">
+        <v>44657</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -1406,14 +1581,30 @@
       <c r="C6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="4"/>
+      <c r="D6" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="20">
+        <v>44657</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
@@ -1422,14 +1613,30 @@
       <c r="C7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="4"/>
+      <c r="D7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="19">
+        <v>44657</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
@@ -1669,20 +1876,21 @@
   <dimension ref="B1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="B2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1719,135 +1927,335 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="19">
+        <v>44658</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+    <row r="4" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="20">
+        <v>44658</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+    <row r="5" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="19">
+        <v>44658</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+    <row r="6" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="20">
+        <v>44658</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+    <row r="7" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="19">
+        <v>44658</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+    <row r="8" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="20">
+        <v>44658</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+    <row r="9" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="19">
+        <v>44658</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="4"/>
+      <c r="B10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="20">
+        <v>44658</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="20">
+        <v>44658</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="19">
+        <v>44658</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="20">
+        <v>44658</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -2013,26 +2421,840 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3A52A6-55C3-43DC-9913-0090E55DBF07}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="D30" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="19">
+        <v>44658</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="20">
+        <v>44658</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="19">
+        <v>44658</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="20">
+        <v>44658</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526A09AA-D1AE-4FBD-9776-3D5002FF76D5}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="19">
+        <v>44658</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="20">
+        <v>44658</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="19">
+        <v>44658</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="20">
+        <v>44658</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Doc/cahierDeTestsCitadelle.xlsx
+++ b/Doc/cahierDeTestsCitadelle.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DYNXTSX\Desktop\Citadelles\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dynot\Desktop\projets\Citadelles\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73364620-38DD-4CF5-BE72-8AF44B9C19F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649E2B92-4F4B-499D-BA1F-596D8C127614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objectifs" sheetId="1" r:id="rId1"/>
-    <sheet name="test.TestQuartier" sheetId="2" r:id="rId2"/>
-    <sheet name="test.TestJoueur" sheetId="3" r:id="rId3"/>
-    <sheet name="test.TestRoi" sheetId="4" r:id="rId4"/>
-    <sheet name="test.TestPioche" sheetId="5" r:id="rId5"/>
-    <sheet name="test.TestPlateauDeJeu" sheetId="6" r:id="rId6"/>
-    <sheet name="test..." sheetId="7" r:id="rId7"/>
+    <sheet name="Feuil4" sheetId="11" r:id="rId2"/>
+    <sheet name="test.TestQuartier" sheetId="2" r:id="rId3"/>
+    <sheet name="test.TestJoueur" sheetId="3" r:id="rId4"/>
+    <sheet name="test.TestRoi" sheetId="4" r:id="rId5"/>
+    <sheet name="test.TestPioche" sheetId="5" r:id="rId6"/>
+    <sheet name="test.TestPlateauDeJeu" sheetId="6" r:id="rId7"/>
+    <sheet name="test.TestArchitecte" sheetId="7" r:id="rId8"/>
+    <sheet name="test,TestAssassin" sheetId="8" r:id="rId9"/>
+    <sheet name="test,TestEveque" sheetId="9" r:id="rId10"/>
+    <sheet name="test,TestInteraction" sheetId="10" r:id="rId11"/>
+    <sheet name="test,TestMagicienne" sheetId="12" r:id="rId12"/>
+    <sheet name="test,TestMarchande" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="125">
   <si>
     <t>Objectif</t>
   </si>
@@ -302,19 +308,148 @@
   </si>
   <si>
     <t>Tester l'association du plateau au personnage</t>
+  </si>
+  <si>
+    <t>Architecte</t>
+  </si>
+  <si>
+    <t>Assassin</t>
+  </si>
+  <si>
+    <t>Eveque</t>
+  </si>
+  <si>
+    <t>Interaction</t>
+  </si>
+  <si>
+    <t>Joueur</t>
+  </si>
+  <si>
+    <t>Magicienne</t>
+  </si>
+  <si>
+    <t>Marchande</t>
+  </si>
+  <si>
+    <t>Pioche</t>
+  </si>
+  <si>
+    <t>Plateau de jeu</t>
+  </si>
+  <si>
+    <t>Quartier</t>
+  </si>
+  <si>
+    <t>Roi</t>
+  </si>
+  <si>
+    <t>Voleur</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>testArchitecte.test1()</t>
+  </si>
+  <si>
+    <t>testArchitecte.test2()</t>
+  </si>
+  <si>
+    <t>testArchitecte.test3()</t>
+  </si>
+  <si>
+    <t>TEST DE L'UTILISATION DU POUVOIR</t>
+  </si>
+  <si>
+    <t>testAssassin.test1()</t>
+  </si>
+  <si>
+    <t>testAssassin.test2()</t>
+  </si>
+  <si>
+    <t>testAssassin.test3()</t>
+  </si>
+  <si>
+    <t>TEST DE L'ASSASSINAT DU ROI</t>
+  </si>
+  <si>
+    <t>testEveque.test1()</t>
+  </si>
+  <si>
+    <t>testEveque.test2()</t>
+  </si>
+  <si>
+    <t>TEST DE LA PERCEPTION DE RESSOURCES SPECIFIQUES</t>
+  </si>
+  <si>
+    <t>testInteraction.test1()</t>
+  </si>
+  <si>
+    <t>testInteraction.test2()</t>
+  </si>
+  <si>
+    <t>testInteraction.test3()</t>
+  </si>
+  <si>
+    <t>testInteraction.test4()</t>
+  </si>
+  <si>
+    <t>TEST POUR LIRE UN ENTIER</t>
+  </si>
+  <si>
+    <t>TEST POUR LIRE UN ENTIER BORNE</t>
+  </si>
+  <si>
+    <t>TEST POUR LIRE UNE REPONSE OUI OU NON</t>
+  </si>
+  <si>
+    <t>TEST POUR LIRE UNE CHAINE DE CARACTERES</t>
+  </si>
+  <si>
+    <t>testMagicienne.test1()</t>
+  </si>
+  <si>
+    <t>testMagicienne.test2()</t>
+  </si>
+  <si>
+    <t>testMagicienne.test3()</t>
+  </si>
+  <si>
+    <t>TEST DU CONSTRUCTEUR</t>
+  </si>
+  <si>
+    <t>TEST DU POUVOIR DE LA MAGICIENNE</t>
+  </si>
+  <si>
+    <t>testMarchande.test1()</t>
+  </si>
+  <si>
+    <t>testMarchande.test2()</t>
+  </si>
+  <si>
+    <t>testMarchande.test3()</t>
+  </si>
+  <si>
+    <t>TEST DE LA PERCEPTION DE RESSOURCES SPECIFIQUES ET DE L'UTILISATEUR DU POUVOIR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -554,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -584,6 +719,9 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,36 +1036,1608 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B5"/>
+  <dimension ref="B2:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="77.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="45">
       <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>31</v>
       </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F0B166-7DFF-475C-B2BB-17FCA94FC21A}">
+  <dimension ref="B1:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="45.75" thickBot="1">
+      <c r="B2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="19">
+        <v>44726</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="20">
+        <v>44726</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="8"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="8"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="8"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="8"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="8"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="8"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="8"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="3"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="3"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="3"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="3"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="3"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="3"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="3"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="3"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="3"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="3"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="3"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="3"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B24" s="5"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A58057-DBF6-46B2-9CA0-E29C7AF88BCC}">
+  <dimension ref="B1:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="45.75" thickBot="1">
+      <c r="B2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="19">
+        <v>44726</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="20">
+        <v>44726</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="20">
+        <v>44726</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="20">
+        <v>44726</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="8"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="8"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="8"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="8"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="8"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="3"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="3"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="3"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="3"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="3"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="3"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="3"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="3"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="3"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="3"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="3"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="3"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B24" s="5"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72340C5-A62B-497B-A6DD-EB43ECB6F75A}">
+  <dimension ref="B1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="45.75" thickBot="1">
+      <c r="B2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="19">
+        <v>44726</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="20">
+        <v>44726</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="20">
+        <v>44726</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="8"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="8"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="8"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="8"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="8"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="3"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="3"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="3"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="3"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="3"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="3"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="3"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="3"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="3"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="3"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="3"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="3"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B23" s="5"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2F88F2-89F4-427A-AF35-310B09071E2B}">
+  <dimension ref="B1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="45.75" thickBot="1">
+      <c r="B2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="19">
+        <v>44726</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="20">
+        <v>44726</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="20">
+        <v>44726</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="8"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="8"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="8"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="8"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="8"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="3"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="3"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="3"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="3"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="3"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="3"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="3"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="3"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="3"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="3"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="3"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="3"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B23" s="5"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -935,14 +2645,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2B9EAB-305B-4B44-82B4-A764C0BF06EF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -957,8 +2679,8 @@
     <col min="11" max="11" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="30" customHeight="1" thickBot="1">
       <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
@@ -990,7 +2712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11">
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
@@ -1022,7 +2744,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="30">
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
@@ -1054,7 +2776,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="30">
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1086,7 +2808,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="30">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -1118,7 +2840,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="30">
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1150,7 +2872,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="30">
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
@@ -1182,7 +2904,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="30">
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
@@ -1214,7 +2936,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11">
       <c r="B10" s="3"/>
       <c r="C10" s="16"/>
       <c r="D10" s="2"/>
@@ -1226,7 +2948,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="3"/>
       <c r="C11" s="16"/>
       <c r="D11" s="2"/>
@@ -1238,7 +2960,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="3"/>
       <c r="C12" s="16"/>
       <c r="D12" s="2"/>
@@ -1250,7 +2972,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="3"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
@@ -1262,7 +2984,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="3"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
@@ -1274,7 +2996,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="3"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
@@ -1286,7 +3008,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="3"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
@@ -1298,7 +3020,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="3"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
@@ -1310,7 +3032,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="3"/>
       <c r="C18" s="16"/>
       <c r="D18" s="2"/>
@@ -1322,7 +3044,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="3"/>
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
@@ -1334,7 +3056,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="3"/>
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
@@ -1346,7 +3068,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="3"/>
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
@@ -1358,7 +3080,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11">
       <c r="B22" s="3"/>
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
@@ -1370,7 +3092,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="3"/>
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
@@ -1382,7 +3104,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="3"/>
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
@@ -1394,7 +3116,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="3"/>
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
@@ -1406,7 +3128,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" ht="15.75" thickBot="1">
       <c r="B26" s="5"/>
       <c r="C26" s="17"/>
       <c r="D26" s="6"/>
@@ -1423,7 +3145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5701002-B3A8-41DB-8C9E-5154A0ED617D}">
   <dimension ref="B1:K26"/>
   <sheetViews>
@@ -1431,7 +3153,7 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
@@ -1445,8 +3167,8 @@
     <col min="11" max="11" width="59.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="45.75" thickBot="1">
       <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
@@ -1478,7 +3200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11">
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
@@ -1510,7 +3232,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11">
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
@@ -1542,7 +3264,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11">
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1574,7 +3296,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -1606,7 +3328,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11">
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1638,7 +3360,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11">
       <c r="B8" s="8"/>
       <c r="C8" s="15"/>
       <c r="D8" s="18"/>
@@ -1650,7 +3372,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11">
       <c r="B9" s="8"/>
       <c r="C9" s="15"/>
       <c r="D9" s="18"/>
@@ -1662,7 +3384,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11">
       <c r="B10" s="3"/>
       <c r="C10" s="16"/>
       <c r="D10" s="2"/>
@@ -1674,7 +3396,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="3"/>
       <c r="C11" s="16"/>
       <c r="D11" s="2"/>
@@ -1686,7 +3408,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="3"/>
       <c r="C12" s="16"/>
       <c r="D12" s="2"/>
@@ -1698,7 +3420,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="3"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
@@ -1710,7 +3432,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="3"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
@@ -1722,7 +3444,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="3"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
@@ -1734,7 +3456,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="3"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
@@ -1746,7 +3468,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="3"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
@@ -1758,7 +3480,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="3"/>
       <c r="C18" s="16"/>
       <c r="D18" s="2"/>
@@ -1770,7 +3492,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="3"/>
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
@@ -1782,7 +3504,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="3"/>
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
@@ -1794,7 +3516,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="3"/>
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
@@ -1806,7 +3528,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11">
       <c r="B22" s="3"/>
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
@@ -1818,7 +3540,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="3"/>
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
@@ -1830,7 +3552,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="3"/>
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
@@ -1842,7 +3564,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="3"/>
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
@@ -1854,7 +3576,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" ht="15.75" thickBot="1">
       <c r="B26" s="5"/>
       <c r="C26" s="17"/>
       <c r="D26" s="6"/>
@@ -1871,7 +3593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACBC47F-1DC7-4885-9E4E-0C9BB500AA8A}">
   <dimension ref="B1:K26"/>
   <sheetViews>
@@ -1879,7 +3601,7 @@
       <selection activeCell="B2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
@@ -1893,8 +3615,8 @@
     <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="45.75" thickBot="1">
       <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
@@ -1926,7 +3648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11">
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
@@ -1956,7 +3678,7 @@
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11">
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
@@ -1986,7 +3708,7 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11">
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
@@ -2016,7 +3738,7 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -2046,7 +3768,7 @@
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11">
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
@@ -2076,7 +3798,7 @@
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="30">
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
@@ -2106,7 +3828,7 @@
       </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="30">
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
@@ -2136,7 +3858,7 @@
       </c>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -2168,7 +3890,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
@@ -2198,7 +3920,7 @@
       </c>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
@@ -2228,7 +3950,7 @@
       </c>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
@@ -2258,7 +3980,7 @@
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="3"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
@@ -2270,7 +3992,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="3"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
@@ -2282,7 +4004,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="3"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
@@ -2294,7 +4016,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="3"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
@@ -2306,7 +4028,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="3"/>
       <c r="C18" s="16"/>
       <c r="D18" s="2"/>
@@ -2318,7 +4040,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="3"/>
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
@@ -2330,7 +4052,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="3"/>
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
@@ -2342,7 +4064,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="3"/>
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
@@ -2354,7 +4076,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11">
       <c r="B22" s="3"/>
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
@@ -2366,7 +4088,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="3"/>
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
@@ -2378,7 +4100,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="3"/>
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
@@ -2390,7 +4112,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="3"/>
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
@@ -2402,7 +4124,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" ht="15.75" thickBot="1">
       <c r="B26" s="5"/>
       <c r="C26" s="17"/>
       <c r="D26" s="6"/>
@@ -2419,7 +4141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3A52A6-55C3-43DC-9913-0090E55DBF07}">
   <dimension ref="B1:K26"/>
   <sheetViews>
@@ -2427,7 +4149,7 @@
       <selection activeCell="D30" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
@@ -2441,8 +4163,8 @@
     <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="45.75" thickBot="1">
       <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
@@ -2474,7 +4196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11">
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
@@ -2504,7 +4226,7 @@
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11">
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
@@ -2534,7 +4256,7 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11">
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
@@ -2564,7 +4286,7 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -2594,7 +4316,7 @@
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11">
       <c r="B7" s="8"/>
       <c r="C7" s="15"/>
       <c r="D7" s="18"/>
@@ -2606,7 +4328,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11">
       <c r="B8" s="8"/>
       <c r="C8" s="15"/>
       <c r="D8" s="18"/>
@@ -2618,7 +4340,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11">
       <c r="B9" s="8"/>
       <c r="C9" s="15"/>
       <c r="D9" s="18"/>
@@ -2630,7 +4352,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11">
       <c r="B10" s="8"/>
       <c r="C10" s="15"/>
       <c r="D10" s="2"/>
@@ -2642,7 +4364,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="8"/>
       <c r="C11" s="15"/>
       <c r="D11" s="2"/>
@@ -2654,7 +4376,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="8"/>
       <c r="C12" s="15"/>
       <c r="D12" s="2"/>
@@ -2666,7 +4388,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="8"/>
       <c r="C13" s="15"/>
       <c r="D13" s="2"/>
@@ -2678,7 +4400,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="3"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
@@ -2690,7 +4412,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="3"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
@@ -2702,7 +4424,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="3"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
@@ -2714,7 +4436,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="3"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
@@ -2726,7 +4448,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="3"/>
       <c r="C18" s="16"/>
       <c r="D18" s="2"/>
@@ -2738,7 +4460,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="3"/>
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
@@ -2750,7 +4472,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="3"/>
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
@@ -2762,7 +4484,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="3"/>
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
@@ -2774,7 +4496,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11">
       <c r="B22" s="3"/>
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
@@ -2786,7 +4508,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="3"/>
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
@@ -2798,7 +4520,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="3"/>
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
@@ -2810,7 +4532,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="3"/>
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
@@ -2822,7 +4544,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" ht="15.75" thickBot="1">
       <c r="B26" s="5"/>
       <c r="C26" s="17"/>
       <c r="D26" s="6"/>
@@ -2839,15 +4561,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526A09AA-D1AE-4FBD-9776-3D5002FF76D5}">
   <dimension ref="B1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
@@ -2861,8 +4583,8 @@
     <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="45.75" thickBot="1">
       <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
@@ -2894,7 +4616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11">
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
@@ -2924,7 +4646,7 @@
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11">
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
@@ -2954,7 +4676,7 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11">
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
@@ -2984,7 +4706,7 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -3014,7 +4736,7 @@
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11">
       <c r="B7" s="8"/>
       <c r="C7" s="15"/>
       <c r="D7" s="18"/>
@@ -3026,7 +4748,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11">
       <c r="B8" s="8"/>
       <c r="C8" s="15"/>
       <c r="D8" s="18"/>
@@ -3038,7 +4760,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11">
       <c r="B9" s="8"/>
       <c r="C9" s="15"/>
       <c r="D9" s="18"/>
@@ -3050,7 +4772,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11">
       <c r="B10" s="8"/>
       <c r="C10" s="15"/>
       <c r="D10" s="2"/>
@@ -3062,7 +4784,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="8"/>
       <c r="C11" s="15"/>
       <c r="D11" s="2"/>
@@ -3074,7 +4796,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="8"/>
       <c r="C12" s="15"/>
       <c r="D12" s="2"/>
@@ -3086,7 +4808,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="8"/>
       <c r="C13" s="15"/>
       <c r="D13" s="2"/>
@@ -3098,7 +4820,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="3"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
@@ -3110,7 +4832,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="3"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
@@ -3122,7 +4844,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="3"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
@@ -3134,7 +4856,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="3"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
@@ -3146,7 +4868,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="3"/>
       <c r="C18" s="16"/>
       <c r="D18" s="2"/>
@@ -3158,7 +4880,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="3"/>
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
@@ -3170,7 +4892,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="3"/>
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
@@ -3182,7 +4904,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="3"/>
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
@@ -3194,7 +4916,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11">
       <c r="B22" s="3"/>
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
@@ -3206,7 +4928,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="3"/>
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
@@ -3218,7 +4940,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="3"/>
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
@@ -3230,7 +4952,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="3"/>
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
@@ -3242,7 +4964,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" ht="15.75" thickBot="1">
       <c r="B26" s="5"/>
       <c r="C26" s="17"/>
       <c r="D26" s="6"/>
@@ -3259,14 +4981,783 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E35FE0-6337-4AA7-8A06-879FAEE5A39F}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="45.75" thickBot="1">
+      <c r="B2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="19">
+        <v>44726</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="20">
+        <v>44726</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="19">
+        <v>44726</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="8"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="8"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="8"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="8"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="8"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="8"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="8"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="3"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="3"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="3"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="3"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="3"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="3"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="3"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="3"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="3"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="3"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="3"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="3"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B25" s="5"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710643E8-634B-4709-A2DD-6F03BD0EC492}">
+  <dimension ref="B1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="45.75" thickBot="1">
+      <c r="B2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="19">
+        <v>44726</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="20">
+        <v>44726</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="19">
+        <v>44726</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="8"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="8"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="8"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="8"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="8"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="8"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="8"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="3"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="3"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="3"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="3"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="3"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="3"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="3"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="3"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="3"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="3"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="3"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="3"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B25" s="5"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>